--- a/Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB8011-BA79-4875-80AD-9F467A52D6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RWEOY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,143 +689,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49809500</v>
+        <v>15021200</v>
       </c>
       <c r="E8" s="3">
-        <v>51166400</v>
+        <v>15508100</v>
       </c>
       <c r="F8" s="3">
-        <v>53816800</v>
+        <v>48907500</v>
       </c>
       <c r="G8" s="3">
-        <v>54170200</v>
+        <v>51441000</v>
       </c>
       <c r="H8" s="3">
-        <v>58395900</v>
+        <v>51778700</v>
       </c>
       <c r="I8" s="3">
-        <v>59595500</v>
+        <v>55817900</v>
       </c>
       <c r="J8" s="3">
+        <v>56964600</v>
+      </c>
+      <c r="K8" s="3">
         <v>57696300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36391600</v>
+        <v>11435300</v>
       </c>
       <c r="E9" s="3">
-        <v>38893000</v>
+        <v>11182900</v>
       </c>
       <c r="F9" s="3">
-        <v>39321500</v>
+        <v>37176000</v>
       </c>
       <c r="G9" s="3">
-        <v>39213500</v>
+        <v>37585500</v>
       </c>
       <c r="H9" s="3">
-        <v>41415500</v>
+        <v>37482300</v>
       </c>
       <c r="I9" s="3">
-        <v>40242900</v>
+        <v>39587200</v>
       </c>
       <c r="J9" s="3">
+        <v>38466300</v>
+      </c>
+      <c r="K9" s="3">
         <v>39455300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13417800</v>
+        <v>3585900</v>
       </c>
       <c r="E10" s="3">
-        <v>12273400</v>
+        <v>4325300</v>
       </c>
       <c r="F10" s="3">
-        <v>14495400</v>
+        <v>11731500</v>
       </c>
       <c r="G10" s="3">
-        <v>14956700</v>
+        <v>13855500</v>
       </c>
       <c r="H10" s="3">
-        <v>16980300</v>
+        <v>14296400</v>
       </c>
       <c r="I10" s="3">
-        <v>19352600</v>
+        <v>16230700</v>
       </c>
       <c r="J10" s="3">
+        <v>18498200</v>
+      </c>
+      <c r="K10" s="3">
         <v>18241000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,8 +847,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,9 +874,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,63 +904,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>997700</v>
+        <v>52700</v>
       </c>
       <c r="E14" s="3">
-        <v>5141300</v>
+        <v>951400</v>
       </c>
       <c r="F14" s="3">
-        <v>3463900</v>
+        <v>4914300</v>
       </c>
       <c r="G14" s="3">
-        <v>989500</v>
+        <v>3311000</v>
       </c>
       <c r="H14" s="3">
-        <v>5599100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>945800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5351900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2429800</v>
+        <v>1010900</v>
       </c>
       <c r="E15" s="3">
-        <v>2661000</v>
+        <v>1068100</v>
       </c>
       <c r="F15" s="3">
-        <v>2831200</v>
+        <v>2543600</v>
       </c>
       <c r="G15" s="3">
-        <v>2666900</v>
+        <v>2706200</v>
       </c>
       <c r="H15" s="3">
-        <v>2941600</v>
+        <v>2549200</v>
       </c>
       <c r="I15" s="3">
-        <v>5952400</v>
+        <v>2811700</v>
       </c>
       <c r="J15" s="3">
+        <v>5689600</v>
+      </c>
+      <c r="K15" s="3">
         <v>3995600</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45833800</v>
+        <v>14696900</v>
       </c>
       <c r="E17" s="3">
-        <v>56001300</v>
+        <v>13306800</v>
       </c>
       <c r="F17" s="3">
-        <v>53267500</v>
+        <v>53529000</v>
       </c>
       <c r="G17" s="3">
-        <v>50003100</v>
+        <v>50915900</v>
       </c>
       <c r="H17" s="3">
-        <v>58768000</v>
+        <v>47795700</v>
       </c>
       <c r="I17" s="3">
-        <v>55082200</v>
+        <v>56173600</v>
       </c>
       <c r="J17" s="3">
+        <v>52650500</v>
+      </c>
+      <c r="K17" s="3">
         <v>52849600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3975700</v>
+        <v>324300</v>
       </c>
       <c r="E18" s="3">
-        <v>-4834900</v>
+        <v>2201300</v>
       </c>
       <c r="F18" s="3">
-        <v>549300</v>
+        <v>-4621500</v>
       </c>
       <c r="G18" s="3">
-        <v>4167000</v>
+        <v>525100</v>
       </c>
       <c r="H18" s="3">
-        <v>-372100</v>
+        <v>3983100</v>
       </c>
       <c r="I18" s="3">
-        <v>4513300</v>
+        <v>-355700</v>
       </c>
       <c r="J18" s="3">
+        <v>4314100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4846700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,143 +1052,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>676100</v>
+        <v>-67300</v>
       </c>
       <c r="E20" s="3">
-        <v>-908500</v>
+        <v>439800</v>
       </c>
       <c r="F20" s="3">
-        <v>-42300</v>
+        <v>-868400</v>
       </c>
       <c r="G20" s="3">
-        <v>-262900</v>
+        <v>-40400</v>
       </c>
       <c r="H20" s="3">
-        <v>559900</v>
+        <v>-251300</v>
       </c>
       <c r="I20" s="3">
-        <v>-429600</v>
+        <v>535200</v>
       </c>
       <c r="J20" s="3">
+        <v>-410600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7685800</v>
+        <v>1334400</v>
       </c>
       <c r="E21" s="3">
-        <v>2091200</v>
+        <v>3729900</v>
       </c>
       <c r="F21" s="3">
-        <v>7117800</v>
+        <v>2011800</v>
       </c>
       <c r="G21" s="3">
-        <v>7525400</v>
+        <v>6814500</v>
       </c>
       <c r="H21" s="3">
-        <v>8775400</v>
+        <v>7199200</v>
       </c>
       <c r="I21" s="3">
-        <v>10374900</v>
+        <v>8402100</v>
       </c>
       <c r="J21" s="3">
+        <v>9927200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8841500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1064600</v>
+        <v>202000</v>
       </c>
       <c r="E22" s="3">
-        <v>1072900</v>
+        <v>334400</v>
       </c>
       <c r="F22" s="3">
-        <v>1254800</v>
+        <v>1025500</v>
       </c>
       <c r="G22" s="3">
-        <v>1267700</v>
+        <v>1199400</v>
       </c>
       <c r="H22" s="3">
-        <v>2554200</v>
+        <v>1211700</v>
       </c>
       <c r="I22" s="3">
-        <v>1466100</v>
+        <v>2441500</v>
       </c>
       <c r="J22" s="3">
+        <v>1401400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1247800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3587200</v>
+        <v>55000</v>
       </c>
       <c r="E23" s="3">
-        <v>-6816300</v>
+        <v>2306800</v>
       </c>
       <c r="F23" s="3">
-        <v>-747700</v>
+        <v>-6515400</v>
       </c>
       <c r="G23" s="3">
-        <v>2636400</v>
+        <v>-714700</v>
       </c>
       <c r="H23" s="3">
-        <v>-2366400</v>
+        <v>2520000</v>
       </c>
       <c r="I23" s="3">
-        <v>2617600</v>
+        <v>-2261900</v>
       </c>
       <c r="J23" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3549600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>869800</v>
+        <v>115600</v>
       </c>
       <c r="E24" s="3">
-        <v>-379100</v>
+        <v>373600</v>
       </c>
       <c r="F24" s="3">
-        <v>707800</v>
+        <v>-362400</v>
       </c>
       <c r="G24" s="3">
-        <v>649100</v>
+        <v>676600</v>
       </c>
       <c r="H24" s="3">
-        <v>867400</v>
+        <v>620500</v>
       </c>
       <c r="I24" s="3">
-        <v>617400</v>
+        <v>829200</v>
       </c>
       <c r="J24" s="3">
+        <v>590200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1002400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2717400</v>
+        <v>-60600</v>
       </c>
       <c r="E26" s="3">
-        <v>-6437200</v>
+        <v>1933200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1455500</v>
+        <v>-6153000</v>
       </c>
       <c r="G26" s="3">
-        <v>1987300</v>
+        <v>-1391300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3233800</v>
+        <v>1899500</v>
       </c>
       <c r="I26" s="3">
-        <v>2000200</v>
+        <v>-3091100</v>
       </c>
       <c r="J26" s="3">
+        <v>1911900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2547200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2230200</v>
+        <v>-888600</v>
       </c>
       <c r="E27" s="3">
-        <v>-6702500</v>
+        <v>1467600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1988400</v>
+        <v>-6406600</v>
       </c>
       <c r="G27" s="3">
-        <v>1572900</v>
+        <v>-1900700</v>
       </c>
       <c r="H27" s="3">
-        <v>-3602400</v>
+        <v>1503500</v>
       </c>
       <c r="I27" s="3">
-        <v>1533000</v>
+        <v>-3443400</v>
       </c>
       <c r="J27" s="3">
+        <v>1465300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2119900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,36 +1319,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>1264500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>664200</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1788900</v>
-      </c>
       <c r="G29" s="3">
-        <v>427300</v>
+        <v>1709900</v>
       </c>
       <c r="H29" s="3">
-        <v>366200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>408400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>350100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-676100</v>
+        <v>67300</v>
       </c>
       <c r="E32" s="3">
-        <v>908500</v>
+        <v>-439800</v>
       </c>
       <c r="F32" s="3">
-        <v>42300</v>
+        <v>868400</v>
       </c>
       <c r="G32" s="3">
-        <v>262900</v>
+        <v>40400</v>
       </c>
       <c r="H32" s="3">
-        <v>-559900</v>
+        <v>251300</v>
       </c>
       <c r="I32" s="3">
-        <v>429600</v>
+        <v>-535200</v>
       </c>
       <c r="J32" s="3">
+        <v>410600</v>
+      </c>
+      <c r="K32" s="3">
         <v>49300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2230200</v>
+        <v>375900</v>
       </c>
       <c r="E33" s="3">
-        <v>-6702500</v>
+        <v>2131800</v>
       </c>
       <c r="F33" s="3">
-        <v>-199500</v>
+        <v>-6406600</v>
       </c>
       <c r="G33" s="3">
-        <v>2000200</v>
+        <v>-190700</v>
       </c>
       <c r="H33" s="3">
-        <v>-3236200</v>
+        <v>1911900</v>
       </c>
       <c r="I33" s="3">
-        <v>1533000</v>
+        <v>-3093300</v>
       </c>
       <c r="J33" s="3">
+        <v>1465300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2119900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2230200</v>
+        <v>375900</v>
       </c>
       <c r="E35" s="3">
-        <v>-6702500</v>
+        <v>2131800</v>
       </c>
       <c r="F35" s="3">
-        <v>-199500</v>
+        <v>-6406600</v>
       </c>
       <c r="G35" s="3">
-        <v>2000200</v>
+        <v>-190700</v>
       </c>
       <c r="H35" s="3">
-        <v>-3236200</v>
+        <v>1911900</v>
       </c>
       <c r="I35" s="3">
-        <v>1533000</v>
+        <v>-3093300</v>
       </c>
       <c r="J35" s="3">
+        <v>1465300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2119900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,251 +1595,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4616600</v>
+        <v>3952800</v>
       </c>
       <c r="E41" s="3">
-        <v>5371400</v>
+        <v>4412800</v>
       </c>
       <c r="F41" s="3">
-        <v>2960300</v>
+        <v>5134200</v>
       </c>
       <c r="G41" s="3">
-        <v>3722200</v>
+        <v>2829700</v>
       </c>
       <c r="H41" s="3">
-        <v>9273100</v>
+        <v>3557800</v>
       </c>
       <c r="I41" s="3">
-        <v>6053300</v>
+        <v>8863700</v>
       </c>
       <c r="J41" s="3">
+        <v>5786100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4307900</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5743500</v>
+        <v>4049300</v>
       </c>
       <c r="E42" s="3">
-        <v>11532700</v>
+        <v>5489900</v>
       </c>
       <c r="F42" s="3">
-        <v>8729600</v>
+        <v>11023600</v>
       </c>
       <c r="G42" s="3">
-        <v>5176500</v>
+        <v>8344200</v>
       </c>
       <c r="H42" s="3">
-        <v>3301900</v>
+        <v>4948000</v>
       </c>
       <c r="I42" s="3">
-        <v>6427800</v>
+        <v>3156200</v>
       </c>
       <c r="J42" s="3">
+        <v>6144000</v>
+      </c>
+      <c r="K42" s="3">
         <v>12134800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8915100</v>
+        <v>5437200</v>
       </c>
       <c r="E43" s="3">
-        <v>7869200</v>
+        <v>8521500</v>
       </c>
       <c r="F43" s="3">
-        <v>8021800</v>
+        <v>7521800</v>
       </c>
       <c r="G43" s="3">
-        <v>10044300</v>
+        <v>7667700</v>
       </c>
       <c r="H43" s="3">
-        <v>20105000</v>
+        <v>9600900</v>
       </c>
       <c r="I43" s="3">
-        <v>34652000</v>
+        <v>19217400</v>
       </c>
       <c r="J43" s="3">
+        <v>33122300</v>
+      </c>
+      <c r="K43" s="3">
         <v>24880100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2258400</v>
+        <v>1830000</v>
       </c>
       <c r="E44" s="3">
-        <v>2310100</v>
+        <v>2158700</v>
       </c>
       <c r="F44" s="3">
-        <v>2299500</v>
+        <v>2208100</v>
       </c>
       <c r="G44" s="3">
-        <v>2619900</v>
+        <v>2198000</v>
       </c>
       <c r="H44" s="3">
-        <v>5603800</v>
+        <v>2504300</v>
       </c>
       <c r="I44" s="3">
-        <v>11046700</v>
+        <v>5356400</v>
       </c>
       <c r="J44" s="3">
+        <v>10559000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7845700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5892500</v>
+        <v>53747800</v>
       </c>
       <c r="E45" s="3">
-        <v>8707300</v>
+        <v>5632400</v>
       </c>
       <c r="F45" s="3">
-        <v>10715700</v>
+        <v>8322900</v>
       </c>
       <c r="G45" s="3">
-        <v>16107000</v>
+        <v>10242600</v>
       </c>
       <c r="H45" s="3">
-        <v>16123500</v>
+        <v>15395900</v>
       </c>
       <c r="I45" s="3">
-        <v>21220100</v>
+        <v>15411700</v>
       </c>
       <c r="J45" s="3">
+        <v>20283300</v>
+      </c>
+      <c r="K45" s="3">
         <v>19187100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27426100</v>
+        <v>69017000</v>
       </c>
       <c r="E46" s="3">
-        <v>35790600</v>
+        <v>26215300</v>
       </c>
       <c r="F46" s="3">
-        <v>32727000</v>
+        <v>34210600</v>
       </c>
       <c r="G46" s="3">
-        <v>37669900</v>
+        <v>31282200</v>
       </c>
       <c r="H46" s="3">
-        <v>28730200</v>
+        <v>36006900</v>
       </c>
       <c r="I46" s="3">
-        <v>29317100</v>
+        <v>27461800</v>
       </c>
       <c r="J46" s="3">
+        <v>28022800</v>
+      </c>
+      <c r="K46" s="3">
         <v>34177800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5340800</v>
+        <v>2494200</v>
       </c>
       <c r="E47" s="3">
-        <v>5381900</v>
+        <v>5105100</v>
       </c>
       <c r="F47" s="3">
-        <v>5320900</v>
+        <v>5144300</v>
       </c>
       <c r="G47" s="3">
-        <v>5957100</v>
+        <v>5086000</v>
       </c>
       <c r="H47" s="3">
-        <v>6765800</v>
+        <v>5694100</v>
       </c>
       <c r="I47" s="3">
-        <v>13954300</v>
+        <v>6467200</v>
       </c>
       <c r="J47" s="3">
+        <v>13338200</v>
+      </c>
+      <c r="K47" s="3">
         <v>16227900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29283000</v>
+        <v>13922800</v>
       </c>
       <c r="E48" s="3">
-        <v>28779500</v>
+        <v>27990300</v>
       </c>
       <c r="F48" s="3">
-        <v>34544100</v>
+        <v>27509000</v>
       </c>
       <c r="G48" s="3">
-        <v>36554800</v>
+        <v>33019000</v>
       </c>
       <c r="H48" s="3">
-        <v>87979400</v>
+        <v>34941000</v>
       </c>
       <c r="I48" s="3">
-        <v>128477000</v>
+        <v>84095400</v>
       </c>
       <c r="J48" s="3">
+        <v>122805000</v>
+      </c>
+      <c r="K48" s="3">
         <v>82126800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14498900</v>
+        <v>2450400</v>
       </c>
       <c r="E49" s="3">
-        <v>14957900</v>
+        <v>13858800</v>
       </c>
       <c r="F49" s="3">
-        <v>15504900</v>
+        <v>14297500</v>
       </c>
       <c r="G49" s="3">
-        <v>15020100</v>
+        <v>14820400</v>
       </c>
       <c r="H49" s="3">
-        <v>44830200</v>
+        <v>14357000</v>
       </c>
       <c r="I49" s="3">
-        <v>56672700</v>
+        <v>42851000</v>
       </c>
       <c r="J49" s="3">
+        <v>54170800</v>
+      </c>
+      <c r="K49" s="3">
         <v>39782800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4513300</v>
+        <v>1996000</v>
       </c>
       <c r="E52" s="3">
-        <v>4771500</v>
+        <v>4314100</v>
       </c>
       <c r="F52" s="3">
-        <v>5026300</v>
+        <v>4560900</v>
       </c>
       <c r="G52" s="3">
-        <v>6116700</v>
+        <v>4804400</v>
       </c>
       <c r="H52" s="3">
-        <v>7155500</v>
+        <v>5846700</v>
       </c>
       <c r="I52" s="3">
-        <v>13859200</v>
+        <v>6839700</v>
       </c>
       <c r="J52" s="3">
+        <v>13247300</v>
+      </c>
+      <c r="K52" s="3">
         <v>10999800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81062100</v>
+        <v>89880400</v>
       </c>
       <c r="E54" s="3">
-        <v>89681400</v>
+        <v>77483500</v>
       </c>
       <c r="F54" s="3">
-        <v>93123000</v>
+        <v>85722300</v>
       </c>
       <c r="G54" s="3">
-        <v>101319000</v>
+        <v>89012000</v>
       </c>
       <c r="H54" s="3">
-        <v>95525800</v>
+        <v>96845700</v>
       </c>
       <c r="I54" s="3">
-        <v>103801000</v>
+        <v>91308700</v>
       </c>
       <c r="J54" s="3">
+        <v>99218700</v>
+      </c>
+      <c r="K54" s="3">
         <v>108732000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,170 +2043,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5959400</v>
+        <v>2725300</v>
       </c>
       <c r="E57" s="3">
-        <v>6375000</v>
+        <v>5696300</v>
       </c>
       <c r="F57" s="3">
-        <v>7186100</v>
+        <v>6093500</v>
       </c>
       <c r="G57" s="3">
-        <v>7405600</v>
+        <v>6868800</v>
       </c>
       <c r="H57" s="3">
-        <v>7559300</v>
+        <v>7078600</v>
       </c>
       <c r="I57" s="3">
-        <v>17197500</v>
+        <v>7225600</v>
       </c>
       <c r="J57" s="3">
+        <v>16438300</v>
+      </c>
+      <c r="K57" s="3">
         <v>18513300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2016600</v>
+        <v>102100</v>
       </c>
       <c r="E58" s="3">
-        <v>1036500</v>
+        <v>1927600</v>
       </c>
       <c r="F58" s="3">
-        <v>1440300</v>
+        <v>990700</v>
       </c>
       <c r="G58" s="3">
-        <v>2573000</v>
+        <v>1376700</v>
       </c>
       <c r="H58" s="3">
-        <v>3695200</v>
+        <v>2459400</v>
       </c>
       <c r="I58" s="3">
-        <v>13424900</v>
+        <v>3532000</v>
       </c>
       <c r="J58" s="3">
+        <v>12832200</v>
+      </c>
+      <c r="K58" s="3">
         <v>15247800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15845300</v>
+        <v>48609100</v>
       </c>
       <c r="E59" s="3">
-        <v>26354400</v>
+        <v>15145700</v>
       </c>
       <c r="F59" s="3">
-        <v>20865600</v>
+        <v>25190900</v>
       </c>
       <c r="G59" s="3">
-        <v>23146400</v>
+        <v>19944500</v>
       </c>
       <c r="H59" s="3">
-        <v>33772900</v>
+        <v>22124500</v>
       </c>
       <c r="I59" s="3">
-        <v>45856100</v>
+        <v>32281900</v>
       </c>
       <c r="J59" s="3">
+        <v>43831700</v>
+      </c>
+      <c r="K59" s="3">
         <v>39444700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23821300</v>
+        <v>51436500</v>
       </c>
       <c r="E60" s="3">
-        <v>33765800</v>
+        <v>22769700</v>
       </c>
       <c r="F60" s="3">
-        <v>29492000</v>
+        <v>32275200</v>
       </c>
       <c r="G60" s="3">
-        <v>33124900</v>
+        <v>28190000</v>
       </c>
       <c r="H60" s="3">
-        <v>25660700</v>
+        <v>31662600</v>
       </c>
       <c r="I60" s="3">
-        <v>28491900</v>
+        <v>24527800</v>
       </c>
       <c r="J60" s="3">
+        <v>27234100</v>
+      </c>
+      <c r="K60" s="3">
         <v>36602900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15997900</v>
+        <v>2027400</v>
       </c>
       <c r="E61" s="3">
-        <v>17947600</v>
+        <v>15291600</v>
       </c>
       <c r="F61" s="3">
-        <v>18826700</v>
+        <v>17155200</v>
       </c>
       <c r="G61" s="3">
-        <v>16708000</v>
+        <v>17995600</v>
       </c>
       <c r="H61" s="3">
-        <v>18181100</v>
+        <v>15970400</v>
       </c>
       <c r="I61" s="3">
-        <v>18096600</v>
+        <v>17378500</v>
       </c>
       <c r="J61" s="3">
+        <v>17297700</v>
+      </c>
+      <c r="K61" s="3">
         <v>18109500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27167800</v>
+        <v>20420200</v>
       </c>
       <c r="E62" s="3">
-        <v>28589300</v>
+        <v>25968500</v>
       </c>
       <c r="F62" s="3">
-        <v>34364500</v>
+        <v>27327200</v>
       </c>
       <c r="G62" s="3">
-        <v>37667600</v>
+        <v>32847400</v>
       </c>
       <c r="H62" s="3">
-        <v>72163500</v>
+        <v>36004700</v>
       </c>
       <c r="I62" s="3">
-        <v>111584000</v>
+        <v>68977700</v>
       </c>
       <c r="J62" s="3">
+        <v>106658000</v>
+      </c>
+      <c r="K62" s="3">
         <v>67904900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73128400</v>
+        <v>80078700</v>
       </c>
       <c r="E66" s="3">
-        <v>86448800</v>
+        <v>69900000</v>
       </c>
       <c r="F66" s="3">
-        <v>86259800</v>
+        <v>82632300</v>
       </c>
       <c r="G66" s="3">
-        <v>92646500</v>
+        <v>82451700</v>
       </c>
       <c r="H66" s="3">
-        <v>86442900</v>
+        <v>88556400</v>
       </c>
       <c r="I66" s="3">
-        <v>89514800</v>
+        <v>82626700</v>
       </c>
       <c r="J66" s="3">
+        <v>85563000</v>
+      </c>
+      <c r="K66" s="3">
         <v>92266200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2239,14 +2439,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K70" s="3">
         <v>117400</v>
       </c>
-      <c r="J70" s="3">
-        <v>117400</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2778400</v>
+        <v>1277900</v>
       </c>
       <c r="E72" s="3">
-        <v>-765300</v>
+        <v>2655800</v>
       </c>
       <c r="F72" s="3">
-        <v>4239800</v>
+        <v>-731500</v>
       </c>
       <c r="G72" s="3">
-        <v>5878400</v>
+        <v>4052600</v>
       </c>
       <c r="H72" s="3">
-        <v>8741400</v>
+        <v>5618900</v>
       </c>
       <c r="I72" s="3">
-        <v>25996400</v>
+        <v>8355500</v>
       </c>
       <c r="J72" s="3">
+        <v>24848700</v>
+      </c>
+      <c r="K72" s="3">
         <v>15423900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7933800</v>
+        <v>9801700</v>
       </c>
       <c r="E76" s="3">
-        <v>3232700</v>
+        <v>7583500</v>
       </c>
       <c r="F76" s="3">
-        <v>6863300</v>
+        <v>3090000</v>
       </c>
       <c r="G76" s="3">
-        <v>8672100</v>
+        <v>6560300</v>
       </c>
       <c r="H76" s="3">
-        <v>9082900</v>
+        <v>8289300</v>
       </c>
       <c r="I76" s="3">
-        <v>14169000</v>
+        <v>8682000</v>
       </c>
       <c r="J76" s="3">
+        <v>13543500</v>
+      </c>
+      <c r="K76" s="3">
         <v>16348800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2230200</v>
+        <v>375900</v>
       </c>
       <c r="E81" s="3">
-        <v>-6702500</v>
+        <v>2131800</v>
       </c>
       <c r="F81" s="3">
-        <v>-199500</v>
+        <v>-6406600</v>
       </c>
       <c r="G81" s="3">
-        <v>2000200</v>
+        <v>-190700</v>
       </c>
       <c r="H81" s="3">
-        <v>-3236200</v>
+        <v>1911900</v>
       </c>
       <c r="I81" s="3">
-        <v>1533000</v>
+        <v>-3093300</v>
       </c>
       <c r="J81" s="3">
+        <v>1465300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2119900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3032000</v>
+        <v>1074900</v>
       </c>
       <c r="E83" s="3">
-        <v>7829300</v>
+        <v>1086100</v>
       </c>
       <c r="F83" s="3">
-        <v>6606200</v>
+        <v>7483700</v>
       </c>
       <c r="G83" s="3">
-        <v>3618900</v>
+        <v>6314600</v>
       </c>
       <c r="H83" s="3">
-        <v>8581700</v>
+        <v>3459100</v>
       </c>
       <c r="I83" s="3">
-        <v>6286900</v>
+        <v>8202900</v>
       </c>
       <c r="J83" s="3">
+        <v>6009400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4041400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2088200</v>
+        <v>7459000</v>
       </c>
       <c r="E89" s="3">
-        <v>2760800</v>
+        <v>-1968000</v>
       </c>
       <c r="F89" s="3">
-        <v>3772600</v>
+        <v>2638900</v>
       </c>
       <c r="G89" s="3">
-        <v>7474800</v>
+        <v>3606100</v>
       </c>
       <c r="H89" s="3">
-        <v>6545200</v>
+        <v>7144800</v>
       </c>
       <c r="I89" s="3">
-        <v>5158900</v>
+        <v>6256200</v>
       </c>
       <c r="J89" s="3">
+        <v>4931100</v>
+      </c>
+      <c r="K89" s="3">
         <v>6467700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3028400</v>
+        <v>-1398000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2709200</v>
+        <v>-3519700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3724500</v>
+        <v>-2589600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3932300</v>
+        <v>-3560100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4608400</v>
+        <v>-3758700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5964100</v>
+        <v>-4404900</v>
       </c>
       <c r="J91" s="3">
+        <v>-5700800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7457200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3158700</v>
+        <v>-4941200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5364300</v>
+        <v>3019300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2237300</v>
+        <v>-5127500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5715300</v>
+        <v>-2138500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2744400</v>
+        <v>-5463000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1508300</v>
+        <v>-2623200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1441800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9115800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-707800</v>
+        <v>-1150000</v>
       </c>
       <c r="E96" s="3">
-        <v>-477700</v>
+        <v>-178400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1256000</v>
+        <v>-456600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1245400</v>
+        <v>-1200500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1891000</v>
+        <v>-1190400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1826400</v>
+        <v>-1807500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1745800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2700900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1803000</v>
+        <v>-1110800</v>
       </c>
       <c r="E100" s="3">
-        <v>5026300</v>
+        <v>-1723400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2398100</v>
+        <v>4804400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2582400</v>
+        <v>-2292200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2340600</v>
+        <v>-2468400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2891100</v>
+        <v>-2237200</v>
       </c>
       <c r="J100" s="3">
+        <v>-2763500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2044800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22300</v>
+        <v>14600</v>
       </c>
       <c r="E101" s="3">
-        <v>-28200</v>
+        <v>-21300</v>
       </c>
       <c r="F101" s="3">
-        <v>16400</v>
+        <v>-26900</v>
       </c>
       <c r="G101" s="3">
-        <v>9400</v>
+        <v>15700</v>
       </c>
       <c r="H101" s="3">
-        <v>-21100</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>18800</v>
+        <v>-20200</v>
       </c>
       <c r="J101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-754800</v>
+        <v>1421600</v>
       </c>
       <c r="E102" s="3">
-        <v>2394600</v>
+        <v>-693400</v>
       </c>
       <c r="F102" s="3">
-        <v>-846300</v>
+        <v>2288900</v>
       </c>
       <c r="G102" s="3">
-        <v>-813500</v>
+        <v>-809000</v>
       </c>
       <c r="H102" s="3">
-        <v>1439100</v>
+        <v>-777500</v>
       </c>
       <c r="I102" s="3">
-        <v>778200</v>
+        <v>1375600</v>
       </c>
       <c r="J102" s="3">
+        <v>743900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-617400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB8011-BA79-4875-80AD-9F467A52D6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RWEOY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,97 +710,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15021200</v>
+        <v>14700000</v>
       </c>
       <c r="E8" s="3">
-        <v>15508100</v>
+        <v>15176600</v>
       </c>
       <c r="F8" s="3">
-        <v>48907500</v>
+        <v>47861800</v>
       </c>
       <c r="G8" s="3">
-        <v>51441000</v>
+        <v>50341100</v>
       </c>
       <c r="H8" s="3">
-        <v>51778700</v>
+        <v>50671600</v>
       </c>
       <c r="I8" s="3">
-        <v>55817900</v>
+        <v>54624400</v>
       </c>
       <c r="J8" s="3">
-        <v>56964600</v>
+        <v>55746600</v>
       </c>
       <c r="K8" s="3">
         <v>57696300</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11435300</v>
+        <v>11190800</v>
       </c>
       <c r="E9" s="3">
-        <v>11182900</v>
+        <v>10943800</v>
       </c>
       <c r="F9" s="3">
-        <v>37176000</v>
+        <v>36381100</v>
       </c>
       <c r="G9" s="3">
-        <v>37585500</v>
+        <v>36781900</v>
       </c>
       <c r="H9" s="3">
-        <v>37482300</v>
+        <v>36680900</v>
       </c>
       <c r="I9" s="3">
-        <v>39587200</v>
+        <v>38740700</v>
       </c>
       <c r="J9" s="3">
-        <v>38466300</v>
+        <v>37643800</v>
       </c>
       <c r="K9" s="3">
         <v>39455300</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3585900</v>
+        <v>3509200</v>
       </c>
       <c r="E10" s="3">
-        <v>4325300</v>
+        <v>4232800</v>
       </c>
       <c r="F10" s="3">
-        <v>11731500</v>
+        <v>11480700</v>
       </c>
       <c r="G10" s="3">
-        <v>13855500</v>
+        <v>13559200</v>
       </c>
       <c r="H10" s="3">
-        <v>14296400</v>
+        <v>13990700</v>
       </c>
       <c r="I10" s="3">
-        <v>16230700</v>
+        <v>15883700</v>
       </c>
       <c r="J10" s="3">
-        <v>18498200</v>
+        <v>18102700</v>
       </c>
       <c r="K10" s="3">
         <v>18241000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +814,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,27 +874,27 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52700</v>
+        <v>51600</v>
       </c>
       <c r="E14" s="3">
-        <v>951400</v>
+        <v>931100</v>
       </c>
       <c r="F14" s="3">
-        <v>4914300</v>
+        <v>4809200</v>
       </c>
       <c r="G14" s="3">
-        <v>3311000</v>
+        <v>3240200</v>
       </c>
       <c r="H14" s="3">
-        <v>945800</v>
+        <v>925600</v>
       </c>
       <c r="I14" s="3">
-        <v>5351900</v>
+        <v>5237500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -939,37 +904,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1010900</v>
+        <v>989300</v>
       </c>
       <c r="E15" s="3">
-        <v>1068100</v>
+        <v>1045300</v>
       </c>
       <c r="F15" s="3">
-        <v>2543600</v>
+        <v>2489200</v>
       </c>
       <c r="G15" s="3">
-        <v>2706200</v>
+        <v>2648400</v>
       </c>
       <c r="H15" s="3">
-        <v>2549200</v>
+        <v>2494700</v>
       </c>
       <c r="I15" s="3">
-        <v>2811700</v>
+        <v>2751600</v>
       </c>
       <c r="J15" s="3">
-        <v>5689600</v>
+        <v>5568000</v>
       </c>
       <c r="K15" s="3">
         <v>3995600</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,67 +945,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14696900</v>
+        <v>14382700</v>
       </c>
       <c r="E17" s="3">
-        <v>13306800</v>
+        <v>13022300</v>
       </c>
       <c r="F17" s="3">
-        <v>53529000</v>
+        <v>52384500</v>
       </c>
       <c r="G17" s="3">
-        <v>50915900</v>
+        <v>49827200</v>
       </c>
       <c r="H17" s="3">
-        <v>47795700</v>
+        <v>46773700</v>
       </c>
       <c r="I17" s="3">
-        <v>56173600</v>
+        <v>54972500</v>
       </c>
       <c r="J17" s="3">
-        <v>52650500</v>
+        <v>51524700</v>
       </c>
       <c r="K17" s="3">
         <v>52849600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>324300</v>
+        <v>317300</v>
       </c>
       <c r="E18" s="3">
-        <v>2201300</v>
+        <v>2154300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4621500</v>
+        <v>-4522700</v>
       </c>
       <c r="G18" s="3">
-        <v>525100</v>
+        <v>513900</v>
       </c>
       <c r="H18" s="3">
-        <v>3983100</v>
+        <v>3897900</v>
       </c>
       <c r="I18" s="3">
-        <v>-355700</v>
+        <v>-348100</v>
       </c>
       <c r="J18" s="3">
-        <v>4314100</v>
+        <v>4221800</v>
       </c>
       <c r="K18" s="3">
         <v>4846700</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,157 +1019,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-67300</v>
+        <v>-65900</v>
       </c>
       <c r="E20" s="3">
-        <v>439800</v>
+        <v>430400</v>
       </c>
       <c r="F20" s="3">
-        <v>-868400</v>
+        <v>-849900</v>
       </c>
       <c r="G20" s="3">
-        <v>-40400</v>
+        <v>-39500</v>
       </c>
       <c r="H20" s="3">
-        <v>-251300</v>
+        <v>-246000</v>
       </c>
       <c r="I20" s="3">
-        <v>535200</v>
+        <v>523700</v>
       </c>
       <c r="J20" s="3">
-        <v>-410600</v>
+        <v>-401900</v>
       </c>
       <c r="K20" s="3">
         <v>-49300</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1334400</v>
+        <v>1305000</v>
       </c>
       <c r="E21" s="3">
-        <v>3729900</v>
+        <v>3649200</v>
       </c>
       <c r="F21" s="3">
-        <v>2011800</v>
+        <v>1962500</v>
       </c>
       <c r="G21" s="3">
-        <v>6814500</v>
+        <v>6663400</v>
       </c>
       <c r="H21" s="3">
-        <v>7199200</v>
+        <v>7042300</v>
       </c>
       <c r="I21" s="3">
-        <v>8402100</v>
+        <v>8215600</v>
       </c>
       <c r="J21" s="3">
-        <v>9927200</v>
+        <v>9709900</v>
       </c>
       <c r="K21" s="3">
         <v>8841500</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>202000</v>
+        <v>197600</v>
       </c>
       <c r="E22" s="3">
-        <v>334400</v>
+        <v>327200</v>
       </c>
       <c r="F22" s="3">
-        <v>1025500</v>
+        <v>1003600</v>
       </c>
       <c r="G22" s="3">
-        <v>1199400</v>
+        <v>1173800</v>
       </c>
       <c r="H22" s="3">
-        <v>1211700</v>
+        <v>1185800</v>
       </c>
       <c r="I22" s="3">
-        <v>2441500</v>
+        <v>2389200</v>
       </c>
       <c r="J22" s="3">
-        <v>1401400</v>
+        <v>1371400</v>
       </c>
       <c r="K22" s="3">
         <v>1247800</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55000</v>
+        <v>53800</v>
       </c>
       <c r="E23" s="3">
-        <v>2306800</v>
+        <v>2257500</v>
       </c>
       <c r="F23" s="3">
-        <v>-6515400</v>
+        <v>-6376100</v>
       </c>
       <c r="G23" s="3">
-        <v>-714700</v>
+        <v>-699400</v>
       </c>
       <c r="H23" s="3">
-        <v>2520000</v>
+        <v>2466100</v>
       </c>
       <c r="I23" s="3">
-        <v>-2261900</v>
+        <v>-2213600</v>
       </c>
       <c r="J23" s="3">
-        <v>2502000</v>
+        <v>2448500</v>
       </c>
       <c r="K23" s="3">
         <v>3549600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115600</v>
+        <v>113100</v>
       </c>
       <c r="E24" s="3">
-        <v>373600</v>
+        <v>365600</v>
       </c>
       <c r="F24" s="3">
-        <v>-362400</v>
+        <v>-354700</v>
       </c>
       <c r="G24" s="3">
-        <v>676600</v>
+        <v>662100</v>
       </c>
       <c r="H24" s="3">
-        <v>620500</v>
+        <v>607200</v>
       </c>
       <c r="I24" s="3">
-        <v>829200</v>
+        <v>811400</v>
       </c>
       <c r="J24" s="3">
-        <v>590200</v>
+        <v>577500</v>
       </c>
       <c r="K24" s="3">
         <v>1002400</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,67 +1199,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-60600</v>
+        <v>-59300</v>
       </c>
       <c r="E26" s="3">
-        <v>1933200</v>
+        <v>1891900</v>
       </c>
       <c r="F26" s="3">
-        <v>-6153000</v>
+        <v>-6021400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1391300</v>
+        <v>-1361500</v>
       </c>
       <c r="H26" s="3">
-        <v>1899500</v>
+        <v>1858900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3091100</v>
+        <v>-3025000</v>
       </c>
       <c r="J26" s="3">
-        <v>1911900</v>
+        <v>1871000</v>
       </c>
       <c r="K26" s="3">
         <v>2547200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-888600</v>
+        <v>-869600</v>
       </c>
       <c r="E27" s="3">
-        <v>1467600</v>
+        <v>1436200</v>
       </c>
       <c r="F27" s="3">
-        <v>-6406600</v>
+        <v>-6269600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1900700</v>
+        <v>-1860000</v>
       </c>
       <c r="H27" s="3">
-        <v>1503500</v>
+        <v>1471300</v>
       </c>
       <c r="I27" s="3">
-        <v>-3443400</v>
+        <v>-3369800</v>
       </c>
       <c r="J27" s="3">
-        <v>1465300</v>
+        <v>1434000</v>
       </c>
       <c r="K27" s="3">
         <v>2119900</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,27 +1289,27 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1264500</v>
+        <v>1237400</v>
       </c>
       <c r="E29" s="3">
-        <v>664200</v>
+        <v>650000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>1709900</v>
+        <v>1673400</v>
       </c>
       <c r="H29" s="3">
-        <v>408400</v>
+        <v>399700</v>
       </c>
       <c r="I29" s="3">
-        <v>350100</v>
+        <v>342600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1354,7 +1319,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,67 +1379,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>67300</v>
+        <v>65900</v>
       </c>
       <c r="E32" s="3">
-        <v>-439800</v>
+        <v>-430400</v>
       </c>
       <c r="F32" s="3">
-        <v>868400</v>
+        <v>849900</v>
       </c>
       <c r="G32" s="3">
-        <v>40400</v>
+        <v>39500</v>
       </c>
       <c r="H32" s="3">
-        <v>251300</v>
+        <v>246000</v>
       </c>
       <c r="I32" s="3">
-        <v>-535200</v>
+        <v>-523700</v>
       </c>
       <c r="J32" s="3">
-        <v>410600</v>
+        <v>401900</v>
       </c>
       <c r="K32" s="3">
         <v>49300</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>375900</v>
+        <v>367800</v>
       </c>
       <c r="E33" s="3">
-        <v>2131800</v>
+        <v>2086200</v>
       </c>
       <c r="F33" s="3">
-        <v>-6406600</v>
+        <v>-6269600</v>
       </c>
       <c r="G33" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="H33" s="3">
-        <v>1911900</v>
+        <v>1871000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3093300</v>
+        <v>-3027200</v>
       </c>
       <c r="J33" s="3">
-        <v>1465300</v>
+        <v>1434000</v>
       </c>
       <c r="K33" s="3">
         <v>2119900</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,42 +1469,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>375900</v>
+        <v>367800</v>
       </c>
       <c r="E35" s="3">
-        <v>2131800</v>
+        <v>2086200</v>
       </c>
       <c r="F35" s="3">
-        <v>-6406600</v>
+        <v>-6269600</v>
       </c>
       <c r="G35" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="H35" s="3">
-        <v>1911900</v>
+        <v>1871000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3093300</v>
+        <v>-3027200</v>
       </c>
       <c r="J35" s="3">
-        <v>1465300</v>
+        <v>1434000</v>
       </c>
       <c r="K35" s="3">
         <v>2119900</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,277 +1562,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3952800</v>
+        <v>3868300</v>
       </c>
       <c r="E41" s="3">
-        <v>4412800</v>
+        <v>4318400</v>
       </c>
       <c r="F41" s="3">
-        <v>5134200</v>
+        <v>5024400</v>
       </c>
       <c r="G41" s="3">
-        <v>2829700</v>
+        <v>2769200</v>
       </c>
       <c r="H41" s="3">
-        <v>3557800</v>
+        <v>3481800</v>
       </c>
       <c r="I41" s="3">
-        <v>8863700</v>
+        <v>8674200</v>
       </c>
       <c r="J41" s="3">
-        <v>5786100</v>
+        <v>5662400</v>
       </c>
       <c r="K41" s="3">
         <v>4307900</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4049300</v>
+        <v>3962700</v>
       </c>
       <c r="E42" s="3">
-        <v>5489900</v>
+        <v>5372500</v>
       </c>
       <c r="F42" s="3">
-        <v>11023600</v>
+        <v>10787900</v>
       </c>
       <c r="G42" s="3">
-        <v>8344200</v>
+        <v>8165800</v>
       </c>
       <c r="H42" s="3">
-        <v>4948000</v>
+        <v>4842200</v>
       </c>
       <c r="I42" s="3">
-        <v>3156200</v>
+        <v>3088700</v>
       </c>
       <c r="J42" s="3">
-        <v>6144000</v>
+        <v>6012600</v>
       </c>
       <c r="K42" s="3">
         <v>12134800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5437200</v>
+        <v>5320900</v>
       </c>
       <c r="E43" s="3">
-        <v>8521500</v>
+        <v>8339300</v>
       </c>
       <c r="F43" s="3">
-        <v>7521800</v>
+        <v>7361000</v>
       </c>
       <c r="G43" s="3">
-        <v>7667700</v>
+        <v>7503700</v>
       </c>
       <c r="H43" s="3">
-        <v>9600900</v>
+        <v>9395600</v>
       </c>
       <c r="I43" s="3">
-        <v>19217400</v>
+        <v>18806500</v>
       </c>
       <c r="J43" s="3">
-        <v>33122300</v>
+        <v>32414100</v>
       </c>
       <c r="K43" s="3">
         <v>24880100</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1830000</v>
+        <v>1790800</v>
       </c>
       <c r="E44" s="3">
-        <v>2158700</v>
+        <v>2112600</v>
       </c>
       <c r="F44" s="3">
-        <v>2208100</v>
+        <v>2160900</v>
       </c>
       <c r="G44" s="3">
-        <v>2198000</v>
+        <v>2151000</v>
       </c>
       <c r="H44" s="3">
-        <v>2504300</v>
+        <v>2450700</v>
       </c>
       <c r="I44" s="3">
-        <v>5356400</v>
+        <v>5241900</v>
       </c>
       <c r="J44" s="3">
-        <v>10559000</v>
+        <v>10333300</v>
       </c>
       <c r="K44" s="3">
         <v>7845700</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53747800</v>
+        <v>52598600</v>
       </c>
       <c r="E45" s="3">
-        <v>5632400</v>
+        <v>5512000</v>
       </c>
       <c r="F45" s="3">
-        <v>8322900</v>
+        <v>8145000</v>
       </c>
       <c r="G45" s="3">
-        <v>10242600</v>
+        <v>10023600</v>
       </c>
       <c r="H45" s="3">
-        <v>15395900</v>
+        <v>15066800</v>
       </c>
       <c r="I45" s="3">
-        <v>15411700</v>
+        <v>15082100</v>
       </c>
       <c r="J45" s="3">
-        <v>20283300</v>
+        <v>19849600</v>
       </c>
       <c r="K45" s="3">
         <v>19187100</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>69017000</v>
+        <v>67541300</v>
       </c>
       <c r="E46" s="3">
-        <v>26215300</v>
+        <v>25654800</v>
       </c>
       <c r="F46" s="3">
-        <v>34210600</v>
+        <v>33479100</v>
       </c>
       <c r="G46" s="3">
-        <v>31282200</v>
+        <v>30613300</v>
       </c>
       <c r="H46" s="3">
-        <v>36006900</v>
+        <v>35237000</v>
       </c>
       <c r="I46" s="3">
-        <v>27461800</v>
+        <v>26874600</v>
       </c>
       <c r="J46" s="3">
-        <v>28022800</v>
+        <v>27423600</v>
       </c>
       <c r="K46" s="3">
         <v>34177800</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2494200</v>
+        <v>2440900</v>
       </c>
       <c r="E47" s="3">
-        <v>5105100</v>
+        <v>4995900</v>
       </c>
       <c r="F47" s="3">
-        <v>5144300</v>
+        <v>5034300</v>
       </c>
       <c r="G47" s="3">
-        <v>5086000</v>
+        <v>4977200</v>
       </c>
       <c r="H47" s="3">
-        <v>5694100</v>
+        <v>5572400</v>
       </c>
       <c r="I47" s="3">
-        <v>6467200</v>
+        <v>6328900</v>
       </c>
       <c r="J47" s="3">
-        <v>13338200</v>
+        <v>13053000</v>
       </c>
       <c r="K47" s="3">
         <v>16227900</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13922800</v>
+        <v>13625100</v>
       </c>
       <c r="E48" s="3">
-        <v>27990300</v>
+        <v>27391800</v>
       </c>
       <c r="F48" s="3">
-        <v>27509000</v>
+        <v>26920800</v>
       </c>
       <c r="G48" s="3">
-        <v>33019000</v>
+        <v>32313000</v>
       </c>
       <c r="H48" s="3">
-        <v>34941000</v>
+        <v>34193900</v>
       </c>
       <c r="I48" s="3">
-        <v>84095400</v>
+        <v>82297300</v>
       </c>
       <c r="J48" s="3">
-        <v>122805000</v>
+        <v>120179000</v>
       </c>
       <c r="K48" s="3">
         <v>82126800</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2450400</v>
+        <v>2398000</v>
       </c>
       <c r="E49" s="3">
-        <v>13858800</v>
+        <v>13562500</v>
       </c>
       <c r="F49" s="3">
-        <v>14297500</v>
+        <v>13991800</v>
       </c>
       <c r="G49" s="3">
-        <v>14820400</v>
+        <v>14503500</v>
       </c>
       <c r="H49" s="3">
-        <v>14357000</v>
+        <v>14050000</v>
       </c>
       <c r="I49" s="3">
-        <v>42851000</v>
+        <v>41934800</v>
       </c>
       <c r="J49" s="3">
-        <v>54170800</v>
+        <v>53012500</v>
       </c>
       <c r="K49" s="3">
         <v>39782800</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,37 +1892,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1996000</v>
+        <v>1953300</v>
       </c>
       <c r="E52" s="3">
-        <v>4314100</v>
+        <v>4221800</v>
       </c>
       <c r="F52" s="3">
-        <v>4560900</v>
+        <v>4463400</v>
       </c>
       <c r="G52" s="3">
-        <v>4804400</v>
+        <v>4701600</v>
       </c>
       <c r="H52" s="3">
-        <v>5846700</v>
+        <v>5721700</v>
       </c>
       <c r="I52" s="3">
-        <v>6839700</v>
+        <v>6693400</v>
       </c>
       <c r="J52" s="3">
-        <v>13247300</v>
+        <v>12964100</v>
       </c>
       <c r="K52" s="3">
         <v>10999800</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,37 +1952,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89880400</v>
+        <v>87958600</v>
       </c>
       <c r="E54" s="3">
-        <v>77483500</v>
+        <v>75826800</v>
       </c>
       <c r="F54" s="3">
-        <v>85722300</v>
+        <v>83889400</v>
       </c>
       <c r="G54" s="3">
-        <v>89012000</v>
+        <v>87108700</v>
       </c>
       <c r="H54" s="3">
-        <v>96845700</v>
+        <v>94775000</v>
       </c>
       <c r="I54" s="3">
-        <v>91308700</v>
+        <v>89356300</v>
       </c>
       <c r="J54" s="3">
-        <v>99218700</v>
+        <v>97097200</v>
       </c>
       <c r="K54" s="3">
         <v>108732000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,187 +2010,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2725300</v>
+        <v>2667000</v>
       </c>
       <c r="E57" s="3">
-        <v>5696300</v>
+        <v>5574500</v>
       </c>
       <c r="F57" s="3">
-        <v>6093500</v>
+        <v>5963200</v>
       </c>
       <c r="G57" s="3">
-        <v>6868800</v>
+        <v>6722000</v>
       </c>
       <c r="H57" s="3">
-        <v>7078600</v>
+        <v>6927300</v>
       </c>
       <c r="I57" s="3">
-        <v>7225600</v>
+        <v>7071100</v>
       </c>
       <c r="J57" s="3">
-        <v>16438300</v>
+        <v>16086800</v>
       </c>
       <c r="K57" s="3">
         <v>18513300</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>102100</v>
+        <v>99900</v>
       </c>
       <c r="E58" s="3">
-        <v>1927600</v>
+        <v>1886400</v>
       </c>
       <c r="F58" s="3">
-        <v>990700</v>
+        <v>969500</v>
       </c>
       <c r="G58" s="3">
-        <v>1376700</v>
+        <v>1347200</v>
       </c>
       <c r="H58" s="3">
-        <v>2459400</v>
+        <v>2406800</v>
       </c>
       <c r="I58" s="3">
-        <v>3532000</v>
+        <v>3456500</v>
       </c>
       <c r="J58" s="3">
-        <v>12832200</v>
+        <v>12557800</v>
       </c>
       <c r="K58" s="3">
         <v>15247800</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48609100</v>
+        <v>47569800</v>
       </c>
       <c r="E59" s="3">
-        <v>15145700</v>
+        <v>14821900</v>
       </c>
       <c r="F59" s="3">
-        <v>25190900</v>
+        <v>24652300</v>
       </c>
       <c r="G59" s="3">
-        <v>19944500</v>
+        <v>19518000</v>
       </c>
       <c r="H59" s="3">
-        <v>22124500</v>
+        <v>21651500</v>
       </c>
       <c r="I59" s="3">
-        <v>32281900</v>
+        <v>31591700</v>
       </c>
       <c r="J59" s="3">
-        <v>43831700</v>
+        <v>42894500</v>
       </c>
       <c r="K59" s="3">
         <v>39444700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51436500</v>
+        <v>50336700</v>
       </c>
       <c r="E60" s="3">
-        <v>22769700</v>
+        <v>22282800</v>
       </c>
       <c r="F60" s="3">
-        <v>32275200</v>
+        <v>31585100</v>
       </c>
       <c r="G60" s="3">
-        <v>28190000</v>
+        <v>27587300</v>
       </c>
       <c r="H60" s="3">
-        <v>31662600</v>
+        <v>30985600</v>
       </c>
       <c r="I60" s="3">
-        <v>24527800</v>
+        <v>24003400</v>
       </c>
       <c r="J60" s="3">
-        <v>27234100</v>
+        <v>26651800</v>
       </c>
       <c r="K60" s="3">
         <v>36602900</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2027400</v>
+        <v>1984100</v>
       </c>
       <c r="E61" s="3">
-        <v>15291600</v>
+        <v>14964600</v>
       </c>
       <c r="F61" s="3">
-        <v>17155200</v>
+        <v>16788400</v>
       </c>
       <c r="G61" s="3">
-        <v>17995600</v>
+        <v>17610800</v>
       </c>
       <c r="H61" s="3">
-        <v>15970400</v>
+        <v>15628900</v>
       </c>
       <c r="I61" s="3">
-        <v>17378500</v>
+        <v>17006900</v>
       </c>
       <c r="J61" s="3">
-        <v>17297700</v>
+        <v>16927900</v>
       </c>
       <c r="K61" s="3">
         <v>18109500</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20420200</v>
+        <v>19983600</v>
       </c>
       <c r="E62" s="3">
-        <v>25968500</v>
+        <v>25413200</v>
       </c>
       <c r="F62" s="3">
-        <v>27327200</v>
+        <v>26742900</v>
       </c>
       <c r="G62" s="3">
-        <v>32847400</v>
+        <v>32145000</v>
       </c>
       <c r="H62" s="3">
-        <v>36004700</v>
+        <v>35234800</v>
       </c>
       <c r="I62" s="3">
-        <v>68977700</v>
+        <v>67502800</v>
       </c>
       <c r="J62" s="3">
-        <v>106658000</v>
+        <v>104377000</v>
       </c>
       <c r="K62" s="3">
         <v>67904900</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,37 +2280,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80078700</v>
+        <v>78366500</v>
       </c>
       <c r="E66" s="3">
-        <v>69900000</v>
+        <v>68405400</v>
       </c>
       <c r="F66" s="3">
-        <v>82632300</v>
+        <v>80865500</v>
       </c>
       <c r="G66" s="3">
-        <v>82451700</v>
+        <v>80688700</v>
       </c>
       <c r="H66" s="3">
-        <v>88556400</v>
+        <v>86662900</v>
       </c>
       <c r="I66" s="3">
-        <v>82626700</v>
+        <v>80860000</v>
       </c>
       <c r="J66" s="3">
-        <v>85563000</v>
+        <v>83733500</v>
       </c>
       <c r="K66" s="3">
         <v>92266200</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2442,14 +2407,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>112200</v>
+        <v>109800</v>
       </c>
       <c r="K70" s="3">
         <v>117400</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,37 +2444,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1277900</v>
+        <v>1250600</v>
       </c>
       <c r="E72" s="3">
-        <v>2655800</v>
+        <v>2599000</v>
       </c>
       <c r="F72" s="3">
-        <v>-731500</v>
+        <v>-715900</v>
       </c>
       <c r="G72" s="3">
-        <v>4052600</v>
+        <v>3966000</v>
       </c>
       <c r="H72" s="3">
-        <v>5618900</v>
+        <v>5498800</v>
       </c>
       <c r="I72" s="3">
-        <v>8355500</v>
+        <v>8176800</v>
       </c>
       <c r="J72" s="3">
-        <v>24848700</v>
+        <v>24317400</v>
       </c>
       <c r="K72" s="3">
         <v>15423900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,37 +2564,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9801700</v>
+        <v>9592100</v>
       </c>
       <c r="E76" s="3">
-        <v>7583500</v>
+        <v>7421400</v>
       </c>
       <c r="F76" s="3">
-        <v>3090000</v>
+        <v>3023900</v>
       </c>
       <c r="G76" s="3">
-        <v>6560300</v>
+        <v>6420000</v>
       </c>
       <c r="H76" s="3">
-        <v>8289300</v>
+        <v>8112000</v>
       </c>
       <c r="I76" s="3">
-        <v>8682000</v>
+        <v>8496300</v>
       </c>
       <c r="J76" s="3">
-        <v>13543500</v>
+        <v>13254000</v>
       </c>
       <c r="K76" s="3">
         <v>16348800</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,37 +2659,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>375900</v>
+        <v>367800</v>
       </c>
       <c r="E81" s="3">
-        <v>2131800</v>
+        <v>2086200</v>
       </c>
       <c r="F81" s="3">
-        <v>-6406600</v>
+        <v>-6269600</v>
       </c>
       <c r="G81" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="H81" s="3">
-        <v>1911900</v>
+        <v>1871000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3093300</v>
+        <v>-3027200</v>
       </c>
       <c r="J81" s="3">
-        <v>1465300</v>
+        <v>1434000</v>
       </c>
       <c r="K81" s="3">
         <v>2119900</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,37 +2703,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1074900</v>
+        <v>1051900</v>
       </c>
       <c r="E83" s="3">
-        <v>1086100</v>
+        <v>1062900</v>
       </c>
       <c r="F83" s="3">
-        <v>7483700</v>
+        <v>7323700</v>
       </c>
       <c r="G83" s="3">
-        <v>6314600</v>
+        <v>6179500</v>
       </c>
       <c r="H83" s="3">
-        <v>3459100</v>
+        <v>3385100</v>
       </c>
       <c r="I83" s="3">
-        <v>8202900</v>
+        <v>8027500</v>
       </c>
       <c r="J83" s="3">
-        <v>6009400</v>
+        <v>5880900</v>
       </c>
       <c r="K83" s="3">
         <v>4041400</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,37 +2883,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7459000</v>
+        <v>7299500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1968000</v>
+        <v>-1925900</v>
       </c>
       <c r="F89" s="3">
-        <v>2638900</v>
+        <v>2582500</v>
       </c>
       <c r="G89" s="3">
-        <v>3606100</v>
+        <v>3529000</v>
       </c>
       <c r="H89" s="3">
-        <v>7144800</v>
+        <v>6992100</v>
       </c>
       <c r="I89" s="3">
-        <v>6256200</v>
+        <v>6122400</v>
       </c>
       <c r="J89" s="3">
-        <v>4931100</v>
+        <v>4825700</v>
       </c>
       <c r="K89" s="3">
         <v>6467700</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,37 +2927,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1398000</v>
+        <v>-1368100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3519700</v>
+        <v>-3444400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2589600</v>
+        <v>-2534200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3560100</v>
+        <v>-3484000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3758700</v>
+        <v>-3678300</v>
       </c>
       <c r="I91" s="3">
-        <v>-4404900</v>
+        <v>-4310700</v>
       </c>
       <c r="J91" s="3">
-        <v>-5700800</v>
+        <v>-5578900</v>
       </c>
       <c r="K91" s="3">
         <v>-7457200</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,37 +3017,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4941200</v>
+        <v>-4835600</v>
       </c>
       <c r="E94" s="3">
-        <v>3019300</v>
+        <v>2954700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5127500</v>
+        <v>-5017900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2138500</v>
+        <v>-2092800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5463000</v>
+        <v>-5346200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2623200</v>
+        <v>-2567100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1441800</v>
+        <v>-1410900</v>
       </c>
       <c r="K94" s="3">
         <v>-9115800</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,37 +3061,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1150000</v>
+        <v>-1125500</v>
       </c>
       <c r="E96" s="3">
-        <v>-178400</v>
+        <v>-174600</v>
       </c>
       <c r="F96" s="3">
-        <v>-456600</v>
+        <v>-446900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1200500</v>
+        <v>-1174900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1190400</v>
+        <v>-1165000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1807500</v>
+        <v>-1768900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1745800</v>
+        <v>-1708500</v>
       </c>
       <c r="K96" s="3">
         <v>-2700900</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,90 +3181,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1110800</v>
+        <v>-1087000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1723400</v>
+        <v>-1686500</v>
       </c>
       <c r="F100" s="3">
-        <v>4804400</v>
+        <v>4701600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2292200</v>
+        <v>-2243200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2468400</v>
+        <v>-2415600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2237200</v>
+        <v>-2189400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2763500</v>
+        <v>-2704400</v>
       </c>
       <c r="K100" s="3">
         <v>2044800</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="E101" s="3">
-        <v>-21300</v>
+        <v>-20900</v>
       </c>
       <c r="F101" s="3">
-        <v>-26900</v>
+        <v>-26400</v>
       </c>
       <c r="G101" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="H101" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="I101" s="3">
-        <v>-20200</v>
+        <v>-19800</v>
       </c>
       <c r="J101" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="K101" s="3">
         <v>-14100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1421600</v>
+        <v>1391200</v>
       </c>
       <c r="E102" s="3">
-        <v>-693400</v>
+        <v>-678600</v>
       </c>
       <c r="F102" s="3">
-        <v>2288900</v>
+        <v>2239900</v>
       </c>
       <c r="G102" s="3">
-        <v>-809000</v>
+        <v>-791700</v>
       </c>
       <c r="H102" s="3">
-        <v>-777500</v>
+        <v>-760900</v>
       </c>
       <c r="I102" s="3">
-        <v>1375600</v>
+        <v>1346100</v>
       </c>
       <c r="J102" s="3">
-        <v>743900</v>
+        <v>728000</v>
       </c>
       <c r="K102" s="3">
         <v>-617400</v>
